--- a/7_10_Extract_part_of_a_text_cell.xlsx
+++ b/7_10_Extract_part_of_a_text_cell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/micahowens/Documents/GitHub/data_analytics_class_assignments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7783106-8E94-5E45-89E6-0212325702B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8B19F9-D7FA-644B-9CF6-7E2C54C0CFB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17480" yWindow="6900" windowWidth="27640" windowHeight="16940" xr2:uid="{43058750-667A-794C-A7D0-645210448AA7}"/>
   </bookViews>
